--- a/target/test-classes/stages.xlsx
+++ b/target/test-classes/stages.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="224">
   <si>
     <t>METER_POINT_ID</t>
   </si>
@@ -368,6 +368,327 @@
   </si>
   <si>
     <t>sfdsf</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1149</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-3940</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8243</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5764</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5911</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7859</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1605</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6059</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-3893</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6856</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-390</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-3541</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-4853</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6073</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1368</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8637</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6141</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-9038</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7777</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6192</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6687</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-132</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7413</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-940</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8564</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2527</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7735</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-9536</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-4961</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2053</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7173</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-682</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-9241</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7378</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1759</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-878</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2275</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8475</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2150</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-947</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-707</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1647</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1500</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1352</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6935</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-3018</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-9117</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5236</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5200</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-627</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-105</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2827</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5083</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8789</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2654</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7292</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5163</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7387</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-9774</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-9639</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6165</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-964</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5650</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-972</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-3624</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2151</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1419</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6111</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7783</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5632</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-9152</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-759</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8404</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7415</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1881</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2102</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-3738</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2386</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8951</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-4914</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2695</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5553</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8253</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8450</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2276</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5975</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8463</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-4149</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6883</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7416</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-310</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8363</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-2980</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1246</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1854</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-3671</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-4582</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7516</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-4524</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-8498</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-9367</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-7118</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-6789</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-3807</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-5026</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-561</t>
+  </si>
+  <si>
+    <t>Auto2020-01-19-1457</t>
   </si>
 </sst>
 </file>
@@ -752,7 +1073,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -766,7 +1087,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -780,7 +1101,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -794,7 +1115,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -808,7 +1129,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -822,7 +1143,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -836,7 +1157,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -850,7 +1171,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -864,7 +1185,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -878,7 +1199,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -892,7 +1213,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -906,7 +1227,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -920,7 +1241,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -934,7 +1255,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -962,7 +1283,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -976,7 +1297,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -990,7 +1311,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1004,7 +1325,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1018,7 +1339,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1032,7 +1353,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1046,7 +1367,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1060,7 +1381,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1074,7 +1395,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1088,7 +1409,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -1102,7 +1423,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1116,7 +1437,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1130,7 +1451,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1144,7 +1465,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1158,7 +1479,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1172,7 +1493,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1186,7 +1507,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1200,7 +1521,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1214,7 +1535,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1228,7 +1549,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1242,7 +1563,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1256,7 +1577,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1270,7 +1591,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1284,7 +1605,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1298,7 +1619,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1312,7 +1633,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1326,7 +1647,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1340,7 +1661,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1354,7 +1675,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1368,7 +1689,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -1382,7 +1703,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1396,7 +1717,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1410,7 +1731,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1424,7 +1745,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1438,7 +1759,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1452,7 +1773,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1466,7 +1787,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1480,7 +1801,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1494,7 +1815,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1508,7 +1829,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1522,7 +1843,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -1536,7 +1857,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1550,7 +1871,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1564,7 +1885,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1578,7 +1899,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1592,7 +1913,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -1606,7 +1927,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -1620,7 +1941,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -1634,7 +1955,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -1648,7 +1969,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -1662,7 +1983,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -1676,7 +1997,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
@@ -1690,7 +2011,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -1704,7 +2025,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -1718,7 +2039,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -1732,7 +2053,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -1746,7 +2067,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -1760,7 +2081,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -1774,7 +2095,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -1788,7 +2109,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -1802,7 +2123,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -1816,7 +2137,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -1830,7 +2151,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -1844,7 +2165,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -1858,7 +2179,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -1872,7 +2193,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -1886,7 +2207,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -1900,7 +2221,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -1914,7 +2235,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -1928,7 +2249,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -1942,7 +2263,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -1956,7 +2277,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -1970,7 +2291,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -1984,7 +2305,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -1998,7 +2319,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -2012,7 +2333,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -2026,7 +2347,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -2040,7 +2361,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -2054,7 +2375,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -2068,7 +2389,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -2082,7 +2403,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -2096,7 +2417,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -2110,7 +2431,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
@@ -2124,7 +2445,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -2138,7 +2459,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -2152,7 +2473,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -2166,7 +2487,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -2180,7 +2501,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -2194,7 +2515,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -2208,7 +2529,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -2222,7 +2543,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -2236,7 +2557,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -2250,7 +2571,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -2264,7 +2585,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -2278,7 +2599,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
